--- a/Investigating structure of RNA-RNA binding by T-SHAPE-data.xlsx
+++ b/Investigating structure of RNA-RNA binding by T-SHAPE-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elnaz.banijamali/Desktop/SHAPEResults/ResultsAll/ReportPaper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD029121-B79B-E648-BBFE-54B681C2A952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC763AE-48F0-4E4A-B754-6283D0F9D395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="1060" windowWidth="27640" windowHeight="16940" activeTab="4" xr2:uid="{378233C6-5762-7443-8467-219700E846E8}"/>
+    <workbookView xWindow="5720" yWindow="900" windowWidth="27640" windowHeight="16940" activeTab="4" xr2:uid="{378233C6-5762-7443-8467-219700E846E8}"/>
   </bookViews>
   <sheets>
     <sheet name="TS#1&amp;TS#2-Cnt" sheetId="12" r:id="rId1"/>
@@ -2064,9 +2064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69ABFD9-2C90-CF42-8D30-C714F789F3B1}">
   <dimension ref="A1:Z61"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4:Y4"/>
-    </sheetView>
+    <sheetView zoomScale="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -24983,9 +24981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02787BB8-695C-D049-886C-EAF73A2B6EF0}">
   <dimension ref="A1:AB162"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4:AB4"/>
-    </sheetView>
+    <sheetView zoomScale="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -28970,7 +28966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBF5937-A630-BD41-97F8-9BF8948D8129}">
   <dimension ref="A1:Z110"/>
   <sheetViews>
-    <sheetView zoomScale="69" workbookViewId="0">
+    <sheetView zoomScale="49" workbookViewId="0">
       <selection activeCell="Z1" sqref="Z1:Z110"/>
     </sheetView>
   </sheetViews>
@@ -35259,7 +35255,7 @@
   <dimension ref="A1:CG115"/>
   <sheetViews>
     <sheetView zoomScale="50" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -40041,7 +40037,7 @@
   <dimension ref="A1:BU115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -40137,7 +40133,7 @@
         <v>5</v>
       </c>
       <c r="V4" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X4" s="17"/>
     </row>
